--- a/data/raw_data/Pc.xlsx
+++ b/data/raw_data/Pc.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rayense/Documents/epid8060fall2019/EmilyRayens-Project/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayense/Documents/GitHub/epid8060fall2019/EmilyRayens-Project/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D741850C-9045-B64D-A199-9371D0F6CDF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="15420" windowHeight="15960" xr2:uid="{590EB7B8-697F-1D40-83DE-3A02659EBF96}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="15420" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -109,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -156,114 +158,114 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -271,122 +273,122 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -417,27 +419,27 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,27 +458,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,11 +495,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -584,8 +586,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{81BEBD80-B476-A745-BF03-69C3896A9A21}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{9B86014A-493F-9D4D-8973-26BF6454264B}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -598,479 +600,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-      <sheetName val="Sheet3 (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="15">
-          <cell r="C15">
-            <v>6615</v>
-          </cell>
-          <cell r="D15">
-            <v>6715</v>
-          </cell>
-          <cell r="E15">
-            <v>6815</v>
-          </cell>
-          <cell r="F15">
-            <v>6915</v>
-          </cell>
-          <cell r="G15">
-            <v>7015</v>
-          </cell>
-          <cell r="H15">
-            <v>7115</v>
-          </cell>
-          <cell r="I15">
-            <v>7215</v>
-          </cell>
-          <cell r="J15">
-            <v>7315</v>
-          </cell>
-          <cell r="K15">
-            <v>7415</v>
-          </cell>
-          <cell r="L15">
-            <v>7515</v>
-          </cell>
-          <cell r="M15">
-            <v>7615</v>
-          </cell>
-          <cell r="N15">
-            <v>7715</v>
-          </cell>
-          <cell r="O15">
-            <v>7815</v>
-          </cell>
-          <cell r="P15">
-            <v>7915</v>
-          </cell>
-          <cell r="Q15">
-            <v>8015</v>
-          </cell>
-          <cell r="R15">
-            <v>8115</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>4</v>
-          </cell>
-          <cell r="C16">
-            <v>2908779.2745760181</v>
-          </cell>
-          <cell r="D16">
-            <v>2537646.6621611454</v>
-          </cell>
-          <cell r="E16">
-            <v>220803.26780698705</v>
-          </cell>
-          <cell r="F16">
-            <v>1925061.9601693372</v>
-          </cell>
-          <cell r="G16">
-            <v>523375.99825511395</v>
-          </cell>
-          <cell r="H16">
-            <v>11009104.454528008</v>
-          </cell>
-          <cell r="I16">
-            <v>519300.38149165851</v>
-          </cell>
-          <cell r="J16">
-            <v>1029101.6978642214</v>
-          </cell>
-          <cell r="K16">
-            <v>2981140.4239779026</v>
-          </cell>
-          <cell r="L16">
-            <v>172822.39528870143</v>
-          </cell>
-          <cell r="M16">
-            <v>507150.34216347151</v>
-          </cell>
-          <cell r="N16">
-            <v>1041017.9410091916</v>
-          </cell>
-          <cell r="O16">
-            <v>460654.79102012201</v>
-          </cell>
-          <cell r="P16">
-            <v>447526.88245096325</v>
-          </cell>
-          <cell r="Q16">
-            <v>649906.60584693006</v>
-          </cell>
-          <cell r="R16">
-            <v>63895251.945098579</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>8</v>
-          </cell>
-          <cell r="C17">
-            <v>1106692.734375</v>
-          </cell>
-          <cell r="D17">
-            <v>612115.25390625</v>
-          </cell>
-          <cell r="E17">
-            <v>55568.86474609375</v>
-          </cell>
-          <cell r="F17">
-            <v>2251129.21875</v>
-          </cell>
-          <cell r="G17">
-            <v>80758.3251953125</v>
-          </cell>
-          <cell r="H17">
-            <v>6775358.4375</v>
-          </cell>
-          <cell r="I17">
-            <v>740657.6171875</v>
-          </cell>
-          <cell r="J17">
-            <v>191510.458984375</v>
-          </cell>
-          <cell r="K17">
-            <v>1418077.109375</v>
-          </cell>
-          <cell r="L17">
-            <v>1516.7742919921875</v>
-          </cell>
-          <cell r="M17">
-            <v>26841.673583984375</v>
-          </cell>
-          <cell r="N17">
-            <v>1206945</v>
-          </cell>
-          <cell r="O17">
-            <v>100096.2890625</v>
-          </cell>
-          <cell r="P17">
-            <v>244679.375</v>
-          </cell>
-          <cell r="Q17">
-            <v>746694.453125</v>
-          </cell>
-          <cell r="R17">
-            <v>662007900</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>12</v>
-          </cell>
-          <cell r="C18">
-            <v>355569.43359375</v>
-          </cell>
-          <cell r="D18">
-            <v>1498250.703125</v>
-          </cell>
-          <cell r="E18">
-            <v>117478.095703125</v>
-          </cell>
-          <cell r="F18">
-            <v>5313575.625</v>
-          </cell>
-          <cell r="G18">
-            <v>77936.5625</v>
-          </cell>
-          <cell r="H18">
-            <v>11594246.875</v>
-          </cell>
-          <cell r="I18">
-            <v>993089.296875</v>
-          </cell>
-          <cell r="J18">
-            <v>603418.125</v>
-          </cell>
-          <cell r="K18">
-            <v>1097642.6171875</v>
-          </cell>
-          <cell r="L18">
-            <v>175.7262134552002</v>
-          </cell>
-          <cell r="M18">
-            <v>262593.837890625</v>
-          </cell>
-          <cell r="N18">
-            <v>1600423.359375</v>
-          </cell>
-          <cell r="O18">
-            <v>154171.8408203125</v>
-          </cell>
-          <cell r="P18">
-            <v>267876.11328125</v>
-          </cell>
-          <cell r="Q18">
-            <v>1256270.234375</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>16</v>
-          </cell>
-          <cell r="C19">
-            <v>628088.65234375</v>
-          </cell>
-          <cell r="D19">
-            <v>3287115.3125</v>
-          </cell>
-          <cell r="E19">
-            <v>131763.837890625</v>
-          </cell>
-          <cell r="F19">
-            <v>6425209.0625</v>
-          </cell>
-          <cell r="G19">
-            <v>1048705.46875</v>
-          </cell>
-          <cell r="H19">
-            <v>22212617.5</v>
-          </cell>
-          <cell r="I19">
-            <v>756377.5390625</v>
-          </cell>
-          <cell r="J19">
-            <v>916089.609375</v>
-          </cell>
-          <cell r="K19">
-            <v>1009869.53125</v>
-          </cell>
-          <cell r="L19">
-            <v>15.2579665184021</v>
-          </cell>
-          <cell r="M19">
-            <v>132491.396484375</v>
-          </cell>
-          <cell r="N19">
-            <v>1278949.3359375</v>
-          </cell>
-          <cell r="O19">
-            <v>172777.12890625</v>
-          </cell>
-          <cell r="P19">
-            <v>261629.677734375</v>
-          </cell>
-          <cell r="Q19">
-            <v>5336393.90625</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>20</v>
-          </cell>
-          <cell r="C20">
-            <v>422178.49609375</v>
-          </cell>
-          <cell r="D20">
-            <v>4690649.6875</v>
-          </cell>
-          <cell r="E20">
-            <v>74391.73828125</v>
-          </cell>
-          <cell r="F20">
-            <v>4398278.59375</v>
-          </cell>
-          <cell r="G20">
-            <v>2394650.9375</v>
-          </cell>
-          <cell r="H20">
-            <v>17725580.625</v>
-          </cell>
-          <cell r="I20">
-            <v>1449203.515625</v>
-          </cell>
-          <cell r="J20">
-            <v>1468659.84375</v>
-          </cell>
-          <cell r="K20">
-            <v>1583087.34375</v>
-          </cell>
-          <cell r="L20">
-            <v>1</v>
-          </cell>
-          <cell r="M20">
-            <v>108307.578125</v>
-          </cell>
-          <cell r="N20">
-            <v>1051758.2421875</v>
-          </cell>
-          <cell r="O20">
-            <v>152609.4091796875</v>
-          </cell>
-          <cell r="P20">
-            <v>523711.6015625</v>
-          </cell>
-          <cell r="Q20">
-            <v>5553232.8125</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>24</v>
-          </cell>
-          <cell r="C21">
-            <v>623463.22265625</v>
-          </cell>
-          <cell r="D21">
-            <v>9932769.0625</v>
-          </cell>
-          <cell r="E21">
-            <v>83355.7470703125</v>
-          </cell>
-          <cell r="F21">
-            <v>9139832.8125</v>
-          </cell>
-          <cell r="G21">
-            <v>4375417.96875</v>
-          </cell>
-          <cell r="H21">
-            <v>37326865</v>
-          </cell>
-          <cell r="I21">
-            <v>1301154.6484375</v>
-          </cell>
-          <cell r="J21">
-            <v>2041920</v>
-          </cell>
-          <cell r="K21">
-            <v>6454903.125</v>
-          </cell>
-          <cell r="L21">
-            <v>71.966869235038757</v>
-          </cell>
-          <cell r="M21">
-            <v>9508.0477905273401</v>
-          </cell>
-          <cell r="N21">
-            <v>2245997.1875</v>
-          </cell>
-          <cell r="O21">
-            <v>431152.40234375</v>
-          </cell>
-          <cell r="P21">
-            <v>1507507.265625</v>
-          </cell>
-          <cell r="Q21">
-            <v>6692683.125</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>28</v>
-          </cell>
-          <cell r="C22">
-            <v>583802.6171875</v>
-          </cell>
-          <cell r="D22">
-            <v>7488872.8125</v>
-          </cell>
-          <cell r="E22">
-            <v>84454.78515625</v>
-          </cell>
-          <cell r="F22">
-            <v>7463848.125</v>
-          </cell>
-          <cell r="G22">
-            <v>2793597.03125</v>
-          </cell>
-          <cell r="H22">
-            <v>37314946.25</v>
-          </cell>
-          <cell r="I22">
-            <v>640350.4296875</v>
-          </cell>
-          <cell r="J22">
-            <v>1903161.015625</v>
-          </cell>
-          <cell r="K22">
-            <v>5177142.8125</v>
-          </cell>
-          <cell r="L22">
-            <v>278.97500991821289</v>
-          </cell>
-          <cell r="M22">
-            <v>23751.854248046875</v>
-          </cell>
-          <cell r="N22">
-            <v>1336324.296875</v>
-          </cell>
-          <cell r="O22">
-            <v>1235414.4140625</v>
-          </cell>
-          <cell r="P22">
-            <v>1372611.796875</v>
-          </cell>
-          <cell r="Q22">
-            <v>4060906.25</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>32</v>
-          </cell>
-          <cell r="C23">
-            <v>356693.76953125</v>
-          </cell>
-          <cell r="D23">
-            <v>8742460.3125</v>
-          </cell>
-          <cell r="E23">
-            <v>253118.7109375</v>
-          </cell>
-          <cell r="F23">
-            <v>3988257.34375</v>
-          </cell>
-          <cell r="G23">
-            <v>2294574.84375</v>
-          </cell>
-          <cell r="I23">
-            <v>1749050</v>
-          </cell>
-          <cell r="J23">
-            <v>1530652.34375</v>
-          </cell>
-          <cell r="K23">
-            <v>422803.14453125</v>
-          </cell>
-          <cell r="L23">
-            <v>26.171929836273193</v>
-          </cell>
-          <cell r="M23">
-            <v>6465.1965332031205</v>
-          </cell>
-          <cell r="N23">
-            <v>2420787.1875</v>
-          </cell>
-          <cell r="O23">
-            <v>2343843.28125</v>
-          </cell>
-          <cell r="P23">
-            <v>1505999.53125</v>
-          </cell>
-          <cell r="Q23">
-            <v>5058729.53125</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1369,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303317DB-2435-7242-BAAA-A97DA08DC9F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A334" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1044,9 @@
       <c r="G5" s="2">
         <v>1264.94676</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="33">
+        <v>1328971.25</v>
+      </c>
       <c r="I5" s="8">
         <v>1</v>
       </c>
@@ -1543,7 +1074,7 @@
         <v>856.22784000000013</v>
       </c>
       <c r="H6" s="33">
-        <v>1328971.25</v>
+        <v>1167962.578125</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
@@ -1572,7 +1103,7 @@
         <v>1258.5942</v>
       </c>
       <c r="H7" s="33">
-        <v>1167962.578125</v>
+        <v>811366.484375</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -1597,7 +1128,7 @@
       <c r="F8" s="26"/>
       <c r="G8" s="2"/>
       <c r="H8" s="33">
-        <v>811366.484375</v>
+        <v>1000000</v>
       </c>
       <c r="I8" s="8">
         <v>1</v>
@@ -1626,7 +1157,7 @@
         <v>1190.22372</v>
       </c>
       <c r="H9" s="33">
-        <v>1000000</v>
+        <v>461368.33984375</v>
       </c>
       <c r="I9" s="8">
         <v>1</v>
@@ -1655,7 +1186,7 @@
         <v>238.69652000000002</v>
       </c>
       <c r="H10" s="33">
-        <v>461368.33984375</v>
+        <v>351686.103515625</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
@@ -1684,7 +1215,7 @@
         <v>372.72400000000005</v>
       </c>
       <c r="H11" s="33">
-        <v>351686.103515625</v>
+        <v>289231.81640625</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
@@ -1713,7 +1244,7 @@
         <v>277.25839999999999</v>
       </c>
       <c r="H12" s="33">
-        <v>289231.81640625</v>
+        <v>645587.98828125</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
@@ -1742,7 +1273,7 @@
         <v>536.06448</v>
       </c>
       <c r="H13" s="33">
-        <v>645587.98828125</v>
+        <v>869689.1796875</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
@@ -1770,9 +1301,7 @@
       <c r="G14" s="2">
         <v>336.13074</v>
       </c>
-      <c r="H14" s="33">
-        <v>869689.1796875</v>
-      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="8">
         <v>1</v>
       </c>
@@ -12280,7 +11809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDC8E1B-2BC6-2948-9527-77B511D331F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/raw_data/Pc.xlsx
+++ b/data/raw_data/Pc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="15420" windowHeight="15960"/>
+    <workbookView xWindow="12740" yWindow="4660" windowWidth="15420" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -504,13 +504,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -583,6 +594,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,7 +4058,7 @@
       <c r="H112" s="33">
         <v>484862.1484375</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="42">
         <v>2</v>
       </c>
     </row>
@@ -4067,7 +4079,9 @@
         <v>117.55930000000001</v>
       </c>
       <c r="H113" s="40"/>
-      <c r="I113" s="21"/>
+      <c r="I113" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="17">
@@ -4308,7 +4322,9 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="33"/>
-      <c r="I122" s="8"/>
+      <c r="I122" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="18">
@@ -4323,7 +4339,9 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="33"/>
-      <c r="I123" s="8"/>
+      <c r="I123" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="18">
@@ -4338,7 +4356,9 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="33"/>
-      <c r="I124" s="8"/>
+      <c r="I124" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="18">
@@ -4353,7 +4373,9 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="33"/>
-      <c r="I125" s="8"/>
+      <c r="I125" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="18">
@@ -4368,7 +4390,9 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="33"/>
-      <c r="I126" s="8"/>
+      <c r="I126" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
@@ -4383,7 +4407,9 @@
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="40"/>
-      <c r="I127" s="21"/>
+      <c r="I127" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="17">
@@ -4771,7 +4797,9 @@
         <v>298.91568000000001</v>
       </c>
       <c r="H141" s="40"/>
-      <c r="I141" s="21"/>
+      <c r="I141" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="17">
@@ -5159,7 +5187,9 @@
         <v>288.6576</v>
       </c>
       <c r="H155" s="40"/>
-      <c r="I155" s="21"/>
+      <c r="I155" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="17">
@@ -5456,7 +5486,9 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="33"/>
-      <c r="I166" s="8"/>
+      <c r="I166" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="18">
@@ -5471,7 +5503,9 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="33"/>
-      <c r="I167" s="8"/>
+      <c r="I167" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="18">
@@ -5486,7 +5520,9 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="33"/>
-      <c r="I168" s="8"/>
+      <c r="I168" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="169" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
@@ -5501,7 +5537,9 @@
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="40"/>
-      <c r="I169" s="21"/>
+      <c r="I169" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="17">
@@ -5798,7 +5836,9 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="33"/>
-      <c r="I180" s="8"/>
+      <c r="I180" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="18">
@@ -5813,7 +5853,9 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="33"/>
-      <c r="I181" s="8"/>
+      <c r="I181" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="18">
@@ -5828,7 +5870,9 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="33"/>
-      <c r="I182" s="8"/>
+      <c r="I182" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="183" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
@@ -5843,7 +5887,9 @@
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
       <c r="H183" s="40"/>
-      <c r="I183" s="21"/>
+      <c r="I183" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="17">
@@ -6231,7 +6277,9 @@
         <v>760.87224000000003</v>
       </c>
       <c r="H197" s="40"/>
-      <c r="I197" s="21"/>
+      <c r="I197" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="17">
@@ -11800,7 +11848,7 @@
       </c>
       <c r="I422">
         <f t="shared" si="0"/>
-        <v>1.5124378109452736</v>
+        <v>1.5333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/Pc.xlsx
+++ b/data/raw_data/Pc.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="460" windowWidth="23360" windowHeight="15960"/>
+    <workbookView xWindow="9360" yWindow="460" windowWidth="33440" windowHeight="16400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="29">
   <si>
     <t>Identifier</t>
   </si>
@@ -61,15 +63,93 @@
   <si>
     <t>Unvaccinated</t>
   </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Transient</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>All animals</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>95% CI, Koopman asymptotic score</t>
+  </si>
+  <si>
+    <t>Association between pulmonary diagnosis and KEX1 RET</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fisher's exact test </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> value</t>
+    </r>
+  </si>
+  <si>
+    <t>CI, confidence interval</t>
+  </si>
+  <si>
+    <t>*P&lt;0.05</t>
+  </si>
+  <si>
+    <t>Progressive into PCP</t>
+  </si>
+  <si>
+    <t>Transient Colonization</t>
+  </si>
+  <si>
+    <t>n=7</t>
+  </si>
+  <si>
+    <t>Relative Risk of Progression into PCP</t>
+  </si>
+  <si>
+    <t>Association between Vaccination and Progressive Pneumocystis</t>
+  </si>
+  <si>
+    <t>*0.0406</t>
+  </si>
+  <si>
+    <t>n=8</t>
+  </si>
+  <si>
+    <t>0.03718-0.9259</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,16 +176,72 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -405,13 +541,407 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -465,27 +995,274 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="163">
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 4" xfId="2"/>
@@ -800,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:N421"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="G1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:I155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,9 +1588,10 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>6717</v>
       </c>
@@ -869,7 +1647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>6717</v>
       </c>
@@ -896,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>6717</v>
       </c>
@@ -923,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>6717</v>
       </c>
@@ -952,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>6717</v>
       </c>
@@ -981,7 +1759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6717</v>
       </c>
@@ -1009,8 +1787,16 @@
       <c r="I7" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6717</v>
       </c>
@@ -1034,8 +1820,20 @@
       <c r="I8" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>6717</v>
       </c>
@@ -1063,8 +1861,20 @@
       <c r="I9" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>6717</v>
+      </c>
+      <c r="L9">
+        <v>6917</v>
+      </c>
+      <c r="M9">
+        <v>7317</v>
+      </c>
+      <c r="N9">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>6717</v>
       </c>
@@ -1092,8 +1902,17 @@
       <c r="I10" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>7017</v>
+      </c>
+      <c r="M10">
+        <v>7517</v>
+      </c>
+      <c r="N10">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>6717</v>
       </c>
@@ -1121,8 +1940,14 @@
       <c r="I11" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>7117</v>
+      </c>
+      <c r="M11">
+        <v>7617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>6717</v>
       </c>
@@ -1150,8 +1975,14 @@
       <c r="I12" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>7217</v>
+      </c>
+      <c r="M12">
+        <v>7817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6717</v>
       </c>
@@ -1179,8 +2010,14 @@
       <c r="I13" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>2116</v>
+      </c>
+      <c r="M13">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>6717</v>
       </c>
@@ -1206,8 +2043,11 @@
       <c r="I14" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="47">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>6717</v>
       </c>
@@ -1231,8 +2071,9 @@
       <c r="I15" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>6817</v>
       </c>
@@ -1255,7 +2096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>6817</v>
       </c>
@@ -1282,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>6817</v>
       </c>
@@ -1308,8 +2149,15 @@
       <c r="I18" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="51"/>
+      <c r="L18" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>6817</v>
       </c>
@@ -1337,8 +2185,17 @@
       <c r="I19" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="42">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>6817</v>
       </c>
@@ -1366,8 +2223,17 @@
       <c r="I20" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="43">
+        <v>7</v>
+      </c>
+      <c r="M20" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>6817</v>
       </c>
@@ -1396,7 +2262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>6817</v>
       </c>
@@ -1425,7 +2291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>6817</v>
       </c>
@@ -1454,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>6817</v>
       </c>
@@ -1483,7 +2349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>6817</v>
       </c>
@@ -1512,7 +2378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>6817</v>
       </c>
@@ -1541,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>6817</v>
       </c>
@@ -1570,7 +2436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>6817</v>
       </c>
@@ -1597,7 +2463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>6817</v>
       </c>
@@ -1622,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>6917</v>
       </c>
@@ -1649,7 +2515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>6917</v>
       </c>
@@ -1676,7 +2542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>6917</v>
       </c>
@@ -11711,6 +12577,4066 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AP47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5:AN43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>6717</v>
+      </c>
+      <c r="C5" s="8">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1990</v>
+      </c>
+      <c r="H5" s="33">
+        <v>238.69652000000002</v>
+      </c>
+      <c r="I5" s="23">
+        <v>351686.103515625</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="12">
+        <v>6917</v>
+      </c>
+      <c r="M5" s="8">
+        <v>36</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3230</v>
+      </c>
+      <c r="R5" s="33">
+        <v>1128.8462400000001</v>
+      </c>
+      <c r="S5" s="23">
+        <v>16886.8115234375</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="12">
+        <v>6717</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>1990</v>
+      </c>
+      <c r="AD5" s="33">
+        <v>238.69652000000002</v>
+      </c>
+      <c r="AE5" s="23">
+        <v>351686.103515625</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="19">
+        <v>7317</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="17">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="17">
+        <v>2110</v>
+      </c>
+      <c r="AN5" s="36">
+        <v>523.66823999999997</v>
+      </c>
+      <c r="AO5" s="26">
+        <v>87956</v>
+      </c>
+      <c r="AP5" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>6717</v>
+      </c>
+      <c r="C6" s="9">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2200</v>
+      </c>
+      <c r="H6" s="34">
+        <v>372.72400000000005</v>
+      </c>
+      <c r="I6" s="24">
+        <v>289231.81640625</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13">
+        <v>6917</v>
+      </c>
+      <c r="M6" s="9">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5080</v>
+      </c>
+      <c r="R6" s="34">
+        <v>1523.7358400000001</v>
+      </c>
+      <c r="S6" s="24">
+        <v>15743.46435546875</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="13">
+        <v>6717</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="18">
+        <v>2200</v>
+      </c>
+      <c r="AD6" s="34">
+        <v>372.72400000000005</v>
+      </c>
+      <c r="AE6" s="24">
+        <v>289231.81640625</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="13">
+        <v>7317</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>32</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>2610</v>
+      </c>
+      <c r="AN6" s="34">
+        <v>277.85277000000002</v>
+      </c>
+      <c r="AO6" s="24">
+        <v>108559.736328125</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>6717</v>
+      </c>
+      <c r="C7" s="9">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1640</v>
+      </c>
+      <c r="H7" s="34">
+        <v>277.25839999999999</v>
+      </c>
+      <c r="I7" s="24">
+        <v>645587.98828125</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="14">
+        <v>6917</v>
+      </c>
+      <c r="M7" s="10">
+        <v>44</v>
+      </c>
+      <c r="N7" s="6">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>3700</v>
+      </c>
+      <c r="R7" s="35">
+        <v>1385.8164999999999</v>
+      </c>
+      <c r="S7" s="25">
+        <v>16031.593627929688</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" s="13">
+        <v>6717</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>1640</v>
+      </c>
+      <c r="AD7" s="34">
+        <v>277.25839999999999</v>
+      </c>
+      <c r="AE7" s="24">
+        <v>645587.98828125</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="13">
+        <v>7317</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>1470</v>
+      </c>
+      <c r="AN7" s="34">
+        <v>354.89916000000005</v>
+      </c>
+      <c r="AO7" s="24">
+        <v>154838.046875</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>6717</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
+        <v>2160</v>
+      </c>
+      <c r="H8" s="35">
+        <v>536.06448</v>
+      </c>
+      <c r="I8" s="25">
+        <v>869689.1796875</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="12">
+        <v>7017</v>
+      </c>
+      <c r="M8" s="8">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1440</v>
+      </c>
+      <c r="R8" s="33">
+        <v>3860.3808000000008</v>
+      </c>
+      <c r="S8" s="23">
+        <v>510543.59375</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="14">
+        <v>6717</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>2160</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>536.06448</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>869689.1796875</v>
+      </c>
+      <c r="AF8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>7317</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>40</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>2700</v>
+      </c>
+      <c r="AN8" s="34">
+        <v>529.97490000000016</v>
+      </c>
+      <c r="AO8" s="24">
+        <v>250789.130859375</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>7317</v>
+      </c>
+      <c r="C9" s="16">
+        <v>28</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2110</v>
+      </c>
+      <c r="H9" s="36">
+        <v>523.66823999999997</v>
+      </c>
+      <c r="I9" s="26">
+        <v>87956</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="13">
+        <v>7017</v>
+      </c>
+      <c r="M9" s="9">
+        <v>24</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>9670</v>
+      </c>
+      <c r="R9" s="34">
+        <v>2364.8468499999999</v>
+      </c>
+      <c r="S9" s="24">
+        <v>330000</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="12">
+        <v>6917</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>36</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>3230</v>
+      </c>
+      <c r="AD9" s="33">
+        <v>1128.8462400000001</v>
+      </c>
+      <c r="AE9" s="23">
+        <v>16886.8115234375</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="13">
+        <v>7317</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>44</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>1800</v>
+      </c>
+      <c r="AN9" s="34">
+        <v>395.86320000000006</v>
+      </c>
+      <c r="AO9" s="24">
+        <v>217402.529296875</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>7317</v>
+      </c>
+      <c r="C10" s="9">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2610</v>
+      </c>
+      <c r="H10" s="34">
+        <v>277.85277000000002</v>
+      </c>
+      <c r="I10" s="24">
+        <v>108559.736328125</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="13">
+        <v>7017</v>
+      </c>
+      <c r="M10" s="9">
+        <v>28</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>9830</v>
+      </c>
+      <c r="R10" s="34">
+        <v>2657.5798200000004</v>
+      </c>
+      <c r="S10" s="24">
+        <v>277504.35546875</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="13">
+        <v>6917</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>5080</v>
+      </c>
+      <c r="AD10" s="34">
+        <v>1523.7358400000001</v>
+      </c>
+      <c r="AE10" s="24">
+        <v>15743.46435546875</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>7317</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>48</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>1190</v>
+      </c>
+      <c r="AN10" s="34">
+        <v>188.92439999999999</v>
+      </c>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>7317</v>
+      </c>
+      <c r="C11" s="9">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1470</v>
+      </c>
+      <c r="H11" s="34">
+        <v>354.89916000000005</v>
+      </c>
+      <c r="I11" s="24">
+        <v>154838.046875</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="14">
+        <v>7017</v>
+      </c>
+      <c r="M11" s="10">
+        <v>32</v>
+      </c>
+      <c r="N11" s="6">
+        <v>3</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>7370</v>
+      </c>
+      <c r="R11" s="35">
+        <v>1619.5575000000001</v>
+      </c>
+      <c r="S11" s="25">
+        <v>283795.615234375</v>
+      </c>
+      <c r="T11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="14">
+        <v>6917</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>3700</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>1385.8164999999999</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>16031.593627929688</v>
+      </c>
+      <c r="AF11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>7317</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>50</v>
+      </c>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3">
+        <v>920</v>
+      </c>
+      <c r="AN11" s="72">
+        <v>246.56</v>
+      </c>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>7317</v>
+      </c>
+      <c r="C12" s="9">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2700</v>
+      </c>
+      <c r="H12" s="34">
+        <v>529.97490000000016</v>
+      </c>
+      <c r="I12" s="24">
+        <v>250789.130859375</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="12">
+        <v>7117</v>
+      </c>
+      <c r="M12" s="8">
+        <v>28</v>
+      </c>
+      <c r="N12" s="4">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>5000</v>
+      </c>
+      <c r="R12" s="33">
+        <v>1568.04</v>
+      </c>
+      <c r="S12" s="23">
+        <v>836661.5625</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="12">
+        <v>7017</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>1440</v>
+      </c>
+      <c r="AD12" s="33">
+        <v>3860.3808000000008</v>
+      </c>
+      <c r="AE12" s="23">
+        <v>510543.59375</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>7517</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>4800</v>
+      </c>
+      <c r="AN12" s="33">
+        <v>486.53760000000005</v>
+      </c>
+      <c r="AO12" s="23">
+        <v>13773662.5</v>
+      </c>
+      <c r="AP12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>7317</v>
+      </c>
+      <c r="C13" s="9">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1800</v>
+      </c>
+      <c r="H13" s="34">
+        <v>395.86320000000006</v>
+      </c>
+      <c r="I13" s="24">
+        <v>217402.529296875</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="13">
+        <v>7117</v>
+      </c>
+      <c r="M13" s="9">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3520</v>
+      </c>
+      <c r="R13" s="34">
+        <v>710.61760000000015</v>
+      </c>
+      <c r="S13" s="24">
+        <v>353241.5234375</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="13">
+        <v>7017</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>24</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>9670</v>
+      </c>
+      <c r="AD13" s="34">
+        <v>2364.8468499999999</v>
+      </c>
+      <c r="AE13" s="24">
+        <v>330000</v>
+      </c>
+      <c r="AF13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="13">
+        <v>7517</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>24</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>5990</v>
+      </c>
+      <c r="AN13" s="34">
+        <v>937.1115400000001</v>
+      </c>
+      <c r="AO13" s="24">
+        <v>4600000</v>
+      </c>
+      <c r="AP13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>7317</v>
+      </c>
+      <c r="C14" s="9">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1190</v>
+      </c>
+      <c r="H14" s="34">
+        <v>188.92439999999999</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="13">
+        <v>7117</v>
+      </c>
+      <c r="M14" s="9">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4140</v>
+      </c>
+      <c r="R14" s="34">
+        <v>1163.9361600000002</v>
+      </c>
+      <c r="S14" s="24">
+        <v>337372.59765625</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="13">
+        <v>7017</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>9830</v>
+      </c>
+      <c r="AD14" s="34">
+        <v>2657.5798200000004</v>
+      </c>
+      <c r="AE14" s="24">
+        <v>277504.35546875</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>7517</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>3400</v>
+      </c>
+      <c r="AN14" s="34">
+        <v>504.45800000000003</v>
+      </c>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>7317</v>
+      </c>
+      <c r="C15" s="7">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>920</v>
+      </c>
+      <c r="H15" s="72">
+        <v>246.56</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="14">
+        <v>7117</v>
+      </c>
+      <c r="M15" s="10">
+        <v>40</v>
+      </c>
+      <c r="N15" s="6">
+        <v>3</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2430</v>
+      </c>
+      <c r="R15" s="35">
+        <v>568.88729999999998</v>
+      </c>
+      <c r="S15" s="25">
+        <v>587971.93359375</v>
+      </c>
+      <c r="T15" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="14">
+        <v>7017</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>7370</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>1619.5575000000001</v>
+      </c>
+      <c r="AE15" s="25">
+        <v>283795.615234375</v>
+      </c>
+      <c r="AF15" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>7517</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>7517</v>
+      </c>
+      <c r="C16" s="8">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H16" s="33">
+        <v>486.53760000000005</v>
+      </c>
+      <c r="I16" s="23">
+        <v>13773662.5</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="12">
+        <v>7217</v>
+      </c>
+      <c r="M16" s="8">
+        <v>20</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>3100</v>
+      </c>
+      <c r="R16" s="33">
+        <v>380.83500000000009</v>
+      </c>
+      <c r="S16" s="23">
+        <v>768081.9140625</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="12">
+        <v>7117</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>5000</v>
+      </c>
+      <c r="AD16" s="33">
+        <v>1568.04</v>
+      </c>
+      <c r="AE16" s="23">
+        <v>836661.5625</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>36</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>2300</v>
+      </c>
+      <c r="AN16" s="34">
+        <v>777.35400000000016</v>
+      </c>
+      <c r="AO16" s="24">
+        <v>756601.2109375</v>
+      </c>
+      <c r="AP16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>7517</v>
+      </c>
+      <c r="C17" s="9">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5990</v>
+      </c>
+      <c r="H17" s="34">
+        <v>937.1115400000001</v>
+      </c>
+      <c r="I17" s="24">
+        <v>4600000</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="13">
+        <v>7217</v>
+      </c>
+      <c r="M17" s="9">
+        <v>24</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5090</v>
+      </c>
+      <c r="R17" s="34">
+        <v>831.70600000000013</v>
+      </c>
+      <c r="S17" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="13">
+        <v>7117</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>3520</v>
+      </c>
+      <c r="AD17" s="34">
+        <v>710.61760000000015</v>
+      </c>
+      <c r="AE17" s="24">
+        <v>353241.5234375</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>3030</v>
+      </c>
+      <c r="AN17" s="34">
+        <v>808.22825999999998</v>
+      </c>
+      <c r="AO17" s="24">
+        <v>1370442.5</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>7517</v>
+      </c>
+      <c r="C18" s="9">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3400</v>
+      </c>
+      <c r="H18" s="34">
+        <v>504.45800000000003</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="13">
+        <v>7217</v>
+      </c>
+      <c r="M18" s="9">
+        <v>28</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4760</v>
+      </c>
+      <c r="R18" s="34">
+        <v>878.38660000000004</v>
+      </c>
+      <c r="S18" s="24">
+        <v>1755316.484375</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="13">
+        <v>7117</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>4140</v>
+      </c>
+      <c r="AD18" s="34">
+        <v>1163.9361600000002</v>
+      </c>
+      <c r="AE18" s="24">
+        <v>337372.59765625</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI18" s="9">
+        <v>44</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>10</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>2560</v>
+      </c>
+      <c r="AN18" s="34">
+        <v>702.03392000000008</v>
+      </c>
+      <c r="AO18" s="24">
+        <v>1472252.8125</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>7517</v>
+      </c>
+      <c r="C19" s="10">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="13">
+        <v>7217</v>
+      </c>
+      <c r="M19" s="9">
+        <v>32</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>2560</v>
+      </c>
+      <c r="R19" s="34">
+        <v>272.52992</v>
+      </c>
+      <c r="S19" s="24">
+        <v>1615317.03125</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="14">
+        <v>7117</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>40</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>2430</v>
+      </c>
+      <c r="AD19" s="35">
+        <v>568.88729999999998</v>
+      </c>
+      <c r="AE19" s="25">
+        <v>587971.93359375</v>
+      </c>
+      <c r="AF19" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI19" s="9">
+        <v>48</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>2980</v>
+      </c>
+      <c r="AN19" s="34">
+        <v>691.73249999999996</v>
+      </c>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>7617</v>
+      </c>
+      <c r="C20" s="9">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2300</v>
+      </c>
+      <c r="H20" s="34">
+        <v>777.35400000000016</v>
+      </c>
+      <c r="I20" s="24">
+        <v>756601.2109375</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="13">
+        <v>7217</v>
+      </c>
+      <c r="M20" s="9">
+        <v>36</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5140</v>
+      </c>
+      <c r="R20" s="34">
+        <v>791.10767999999996</v>
+      </c>
+      <c r="S20" s="24">
+        <v>2023935.703125</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="12">
+        <v>7217</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>3100</v>
+      </c>
+      <c r="AD20" s="33">
+        <v>380.83500000000009</v>
+      </c>
+      <c r="AE20" s="23">
+        <v>768081.9140625</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>7617</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>50</v>
+      </c>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6">
+        <v>1680</v>
+      </c>
+      <c r="AN20" s="35">
+        <v>298.91568000000001</v>
+      </c>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>7617</v>
+      </c>
+      <c r="C21" s="9">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3030</v>
+      </c>
+      <c r="H21" s="34">
+        <v>808.22825999999998</v>
+      </c>
+      <c r="I21" s="24">
+        <v>1370442.5</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="13">
+        <v>7217</v>
+      </c>
+      <c r="M21" s="9">
+        <v>40</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5510</v>
+      </c>
+      <c r="R21" s="34">
+        <v>406.07598000000007</v>
+      </c>
+      <c r="S21" s="24">
+        <v>2524637.421875</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="13">
+        <v>7217</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>24</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>5090</v>
+      </c>
+      <c r="AD21" s="34">
+        <v>831.70600000000013</v>
+      </c>
+      <c r="AE21" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="13">
+        <v>7817</v>
+      </c>
+      <c r="AI21" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>3300</v>
+      </c>
+      <c r="AN21" s="34">
+        <v>413.78040000000004</v>
+      </c>
+      <c r="AO21" s="24">
+        <v>509741.4453125</v>
+      </c>
+      <c r="AP21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>7617</v>
+      </c>
+      <c r="C22" s="9">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2560</v>
+      </c>
+      <c r="H22" s="34">
+        <v>702.03392000000008</v>
+      </c>
+      <c r="I22" s="24">
+        <v>1472252.8125</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="13">
+        <v>7217</v>
+      </c>
+      <c r="M22" s="9">
+        <v>44</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>3690</v>
+      </c>
+      <c r="R22" s="34">
+        <v>459.88470000000001</v>
+      </c>
+      <c r="S22" s="24">
+        <v>1730317.734375</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="13">
+        <v>7217</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>4760</v>
+      </c>
+      <c r="AD22" s="34">
+        <v>878.38660000000004</v>
+      </c>
+      <c r="AE22" s="24">
+        <v>1755316.484375</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>7817</v>
+      </c>
+      <c r="AI22" s="9">
+        <v>32</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>2700</v>
+      </c>
+      <c r="AN22" s="34">
+        <v>247.24440000000004</v>
+      </c>
+      <c r="AO22" s="24">
+        <v>1030732.5</v>
+      </c>
+      <c r="AP22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>7617</v>
+      </c>
+      <c r="C23" s="9">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2980</v>
+      </c>
+      <c r="H23" s="34">
+        <v>691.73249999999996</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="14">
+        <v>7217</v>
+      </c>
+      <c r="M23" s="10">
+        <v>48</v>
+      </c>
+      <c r="N23" s="6">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1610</v>
+      </c>
+      <c r="R23" s="35">
+        <v>168.34482</v>
+      </c>
+      <c r="S23" s="25"/>
+      <c r="T23" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="13">
+        <v>7217</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>2560</v>
+      </c>
+      <c r="AD23" s="34">
+        <v>272.52992</v>
+      </c>
+      <c r="AE23" s="24">
+        <v>1615317.03125</v>
+      </c>
+      <c r="AF23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="15">
+        <v>7817</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>36</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>1680</v>
+      </c>
+      <c r="AN23" s="72">
+        <v>205.61183999999997</v>
+      </c>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>7617</v>
+      </c>
+      <c r="C24" s="10">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>1680</v>
+      </c>
+      <c r="H24" s="35">
+        <v>298.91568000000001</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="19">
+        <v>2116</v>
+      </c>
+      <c r="M24" s="16">
+        <v>40</v>
+      </c>
+      <c r="N24" s="17">
+        <v>2</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1</v>
+      </c>
+      <c r="P24" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>2740</v>
+      </c>
+      <c r="R24" s="75">
+        <v>687.18103999999994</v>
+      </c>
+      <c r="S24" s="76">
+        <v>747964.296875</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="X24" s="13">
+        <v>7217</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>5140</v>
+      </c>
+      <c r="AD24" s="34">
+        <v>791.10767999999996</v>
+      </c>
+      <c r="AE24" s="24">
+        <v>2023935.703125</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>7917</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>2420</v>
+      </c>
+      <c r="AN24" s="33">
+        <v>796.71724000000006</v>
+      </c>
+      <c r="AO24" s="23">
+        <v>198067.4609375</v>
+      </c>
+      <c r="AP24" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>7817</v>
+      </c>
+      <c r="C25" s="9">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3300</v>
+      </c>
+      <c r="H25" s="34">
+        <v>413.78040000000004</v>
+      </c>
+      <c r="I25" s="24">
+        <v>509741.4453125</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="13">
+        <v>2116</v>
+      </c>
+      <c r="M25" s="9">
+        <v>44</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1590</v>
+      </c>
+      <c r="R25" s="37">
+        <v>504.97923000000009</v>
+      </c>
+      <c r="S25" s="27">
+        <v>1478288.125</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="13">
+        <v>7217</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>5510</v>
+      </c>
+      <c r="AD25" s="34">
+        <v>406.07598000000007</v>
+      </c>
+      <c r="AE25" s="24">
+        <v>2524637.421875</v>
+      </c>
+      <c r="AF25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>7917</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>24</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>3200</v>
+      </c>
+      <c r="AN25" s="34">
+        <v>1147.2767999999999</v>
+      </c>
+      <c r="AO25" s="24">
+        <v>470000</v>
+      </c>
+      <c r="AP25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>7817</v>
+      </c>
+      <c r="C26" s="9">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2700</v>
+      </c>
+      <c r="H26" s="34">
+        <v>247.24440000000004</v>
+      </c>
+      <c r="I26" s="24">
+        <v>1030732.5</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="13">
+        <v>2116</v>
+      </c>
+      <c r="M26" s="9">
+        <v>48</v>
+      </c>
+      <c r="N26" s="2">
+        <v>3</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>3570</v>
+      </c>
+      <c r="R26" s="37">
+        <v>1000.08552</v>
+      </c>
+      <c r="S26" s="27">
+        <v>850982.6171875</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26" s="13">
+        <v>7217</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>44</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>3690</v>
+      </c>
+      <c r="AD26" s="34">
+        <v>459.88470000000001</v>
+      </c>
+      <c r="AE26" s="24">
+        <v>1730317.734375</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="13">
+        <v>7917</v>
+      </c>
+      <c r="AI26" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>2160</v>
+      </c>
+      <c r="AN26" s="34">
+        <v>674.05823999999996</v>
+      </c>
+      <c r="AO26" s="24">
+        <v>391397.8515625</v>
+      </c>
+      <c r="AP26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <v>7817</v>
+      </c>
+      <c r="C27" s="7">
+        <v>36</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1680</v>
+      </c>
+      <c r="H27" s="72">
+        <v>205.61183999999997</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="14">
+        <v>2116</v>
+      </c>
+      <c r="M27" s="10">
+        <v>50</v>
+      </c>
+      <c r="N27" s="6">
+        <v>3</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="14">
+        <v>7217</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>48</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>1610</v>
+      </c>
+      <c r="AD27" s="35">
+        <v>168.34482</v>
+      </c>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH27" s="13">
+        <v>7917</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>32</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>1970</v>
+      </c>
+      <c r="AN27" s="34">
+        <v>339.67133999999999</v>
+      </c>
+      <c r="AO27" s="24">
+        <v>842400.15625</v>
+      </c>
+      <c r="AP27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>7917</v>
+      </c>
+      <c r="C28" s="8">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2420</v>
+      </c>
+      <c r="H28" s="33">
+        <v>796.71724000000006</v>
+      </c>
+      <c r="I28" s="23">
+        <v>198067.4609375</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="13">
+        <v>6615</v>
+      </c>
+      <c r="M28" s="9">
+        <v>40</v>
+      </c>
+      <c r="N28" s="2">
+        <v>3</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2">
+        <v>3110</v>
+      </c>
+      <c r="R28" s="37">
+        <v>219.89255</v>
+      </c>
+      <c r="S28" s="27">
+        <v>583802.6171875</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="19">
+        <v>2116</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>40</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>2740</v>
+      </c>
+      <c r="AD28" s="75">
+        <v>687.18103999999994</v>
+      </c>
+      <c r="AE28" s="76">
+        <v>747964.296875</v>
+      </c>
+      <c r="AF28" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>7917</v>
+      </c>
+      <c r="AI28" s="10">
+        <v>36</v>
+      </c>
+      <c r="AJ28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AL28" s="6">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="6">
+        <v>2400</v>
+      </c>
+      <c r="AN28" s="35">
+        <v>737.12160000000006</v>
+      </c>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>7917</v>
+      </c>
+      <c r="C29" s="9">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3200</v>
+      </c>
+      <c r="H29" s="34">
+        <v>1147.2767999999999</v>
+      </c>
+      <c r="I29" s="24">
+        <v>470000</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="13">
+        <v>6615</v>
+      </c>
+      <c r="M29" s="9">
+        <v>44</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2">
+        <v>3230</v>
+      </c>
+      <c r="R29" s="37">
+        <v>135.81504000000001</v>
+      </c>
+      <c r="S29" s="27">
+        <v>356693.76953125</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="13">
+        <v>2116</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>44</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>1590</v>
+      </c>
+      <c r="AD29" s="37">
+        <v>504.97923000000009</v>
+      </c>
+      <c r="AE29" s="27">
+        <v>1478288.125</v>
+      </c>
+      <c r="AF29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>7417</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>2950</v>
+      </c>
+      <c r="AN29" s="34">
+        <v>547.4905</v>
+      </c>
+      <c r="AO29" s="24">
+        <v>476868.90625</v>
+      </c>
+      <c r="AP29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>7917</v>
+      </c>
+      <c r="C30" s="9">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2160</v>
+      </c>
+      <c r="H30" s="34">
+        <v>674.05823999999996</v>
+      </c>
+      <c r="I30" s="24">
+        <v>391397.8515625</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="13">
+        <v>6615</v>
+      </c>
+      <c r="M30" s="9">
+        <v>48</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2">
+        <v>5240</v>
+      </c>
+      <c r="R30" s="37">
+        <v>428.86256000000003</v>
+      </c>
+      <c r="S30" s="27"/>
+      <c r="T30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="13">
+        <v>2116</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>48</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>3570</v>
+      </c>
+      <c r="AD30" s="37">
+        <v>1000.08552</v>
+      </c>
+      <c r="AE30" s="27">
+        <v>850982.6171875</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH30" s="13">
+        <v>7417</v>
+      </c>
+      <c r="AI30" s="9">
+        <v>24</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>2490</v>
+      </c>
+      <c r="AN30" s="34">
+        <v>422.87670000000008</v>
+      </c>
+      <c r="AO30" s="24">
+        <v>1189145.546875</v>
+      </c>
+      <c r="AP30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>7917</v>
+      </c>
+      <c r="C31" s="9">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1970</v>
+      </c>
+      <c r="H31" s="34">
+        <v>339.67133999999999</v>
+      </c>
+      <c r="I31" s="24">
+        <v>842400.15625</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="14">
+        <v>6615</v>
+      </c>
+      <c r="M31" s="10">
+        <v>50</v>
+      </c>
+      <c r="N31" s="6">
+        <v>3</v>
+      </c>
+      <c r="O31" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6">
+        <v>3780</v>
+      </c>
+      <c r="R31" s="41">
+        <v>277.83</v>
+      </c>
+      <c r="S31" s="32"/>
+      <c r="T31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="14">
+        <v>2116</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>50</v>
+      </c>
+      <c r="Z31" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH31" s="13">
+        <v>7417</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>1400</v>
+      </c>
+      <c r="AN31" s="34">
+        <v>194.32420000000002</v>
+      </c>
+      <c r="AO31" s="24">
+        <v>920000</v>
+      </c>
+      <c r="AP31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>7917</v>
+      </c>
+      <c r="C32" s="10">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2400</v>
+      </c>
+      <c r="H32" s="35">
+        <v>737.12160000000006</v>
+      </c>
+      <c r="I32" s="25"/>
+      <c r="J32" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="13">
+        <v>7417</v>
+      </c>
+      <c r="M32" s="9">
+        <v>20</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>2950</v>
+      </c>
+      <c r="R32" s="34">
+        <v>547.4905</v>
+      </c>
+      <c r="S32" s="24">
+        <v>476868.90625</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X32" s="13">
+        <v>6615</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2">
+        <v>3110</v>
+      </c>
+      <c r="AD32" s="37">
+        <v>219.89255</v>
+      </c>
+      <c r="AE32" s="27">
+        <v>583802.6171875</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH32" s="15">
+        <v>7417</v>
+      </c>
+      <c r="AI32" s="7">
+        <v>32</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>1810</v>
+      </c>
+      <c r="AN32" s="72">
+        <v>390.04775999999998</v>
+      </c>
+      <c r="AO32" s="31">
+        <v>767184.0625</v>
+      </c>
+      <c r="AP32" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>AVERAGE(D5:D32)</f>
+        <v>1.64</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(E5:E32)</f>
+        <v>1.6923076923076923</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(F5:F32)</f>
+        <v>2.68</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(G5:G32)</f>
+        <v>2494.8148148148148</v>
+      </c>
+      <c r="H33">
+        <f>AVERAGE(H5:H32)</f>
+        <v>507.79034925925924</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(I5:I32)</f>
+        <v>1419551.9484375</v>
+      </c>
+      <c r="L33" s="13">
+        <v>7417</v>
+      </c>
+      <c r="M33" s="9">
+        <v>24</v>
+      </c>
+      <c r="N33" s="2">
+        <v>2</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>2490</v>
+      </c>
+      <c r="R33" s="34">
+        <v>422.87670000000008</v>
+      </c>
+      <c r="S33" s="24">
+        <v>1189145.546875</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X33" s="13">
+        <v>6615</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2">
+        <v>3230</v>
+      </c>
+      <c r="AD33" s="37">
+        <v>135.81504000000001</v>
+      </c>
+      <c r="AE33" s="27">
+        <v>356693.76953125</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>7717</v>
+      </c>
+      <c r="AI33" s="9">
+        <v>32</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>4980</v>
+      </c>
+      <c r="AN33" s="34">
+        <v>695.74584000000004</v>
+      </c>
+      <c r="AO33" s="24">
+        <v>1781030.859375</v>
+      </c>
+      <c r="AP33" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="13">
+        <v>7417</v>
+      </c>
+      <c r="M34" s="9">
+        <v>28</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1400</v>
+      </c>
+      <c r="R34" s="34">
+        <v>194.32420000000002</v>
+      </c>
+      <c r="S34" s="24">
+        <v>920000</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="13">
+        <v>6615</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>48</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2">
+        <v>5240</v>
+      </c>
+      <c r="AD34" s="37">
+        <v>428.86256000000003</v>
+      </c>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>7717</v>
+      </c>
+      <c r="AI34" s="9">
+        <v>36</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>3280</v>
+      </c>
+      <c r="AN34" s="34">
+        <v>550.90879999999993</v>
+      </c>
+      <c r="AO34" s="24">
+        <v>2627747.34375</v>
+      </c>
+      <c r="AP34" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="73"/>
+      <c r="E35" s="74">
+        <f>TTEST(E5:E32,O5:O46,2,3)</f>
+        <v>0.12362163191038998</v>
+      </c>
+      <c r="F35" s="74">
+        <f>TTEST(F5:F32,P5:P46,2,3)</f>
+        <v>0.18594586574115343</v>
+      </c>
+      <c r="G35" s="73">
+        <f>TTEST(G5:G32,Q5:Q46,2,3)</f>
+        <v>8.7351127972578669E-4</v>
+      </c>
+      <c r="H35" s="73">
+        <f>TTEST(H5:H32,R5:R46,2,3)</f>
+        <v>6.8909115927564399E-3</v>
+      </c>
+      <c r="I35" s="74">
+        <f>TTEST(I5:I32,S5:S46,2,3)</f>
+        <v>0.55876549720782587</v>
+      </c>
+      <c r="L35" s="15">
+        <v>7417</v>
+      </c>
+      <c r="M35" s="7">
+        <v>32</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1810</v>
+      </c>
+      <c r="R35" s="72">
+        <v>390.04775999999998</v>
+      </c>
+      <c r="S35" s="31">
+        <v>767184.0625</v>
+      </c>
+      <c r="T35" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="X35" s="14">
+        <v>6615</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>50</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6">
+        <v>3780</v>
+      </c>
+      <c r="AD35" s="41">
+        <v>277.83</v>
+      </c>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>7717</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>40</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>5340</v>
+      </c>
+      <c r="AN35" s="34">
+        <v>882.81947999999988</v>
+      </c>
+      <c r="AO35" s="24">
+        <v>4276218.125</v>
+      </c>
+      <c r="AP35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="13">
+        <v>7717</v>
+      </c>
+      <c r="M36" s="9">
+        <v>32</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>4980</v>
+      </c>
+      <c r="R36" s="34">
+        <v>695.74584000000004</v>
+      </c>
+      <c r="S36" s="24">
+        <v>1781030.859375</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>7717</v>
+      </c>
+      <c r="AI36" s="9">
+        <v>44</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>3950</v>
+      </c>
+      <c r="AN36" s="34">
+        <v>644.15020000000015</v>
+      </c>
+      <c r="AO36" s="24">
+        <v>2615538.28125</v>
+      </c>
+      <c r="AP36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="13">
+        <v>7717</v>
+      </c>
+      <c r="M37" s="9">
+        <v>36</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>3280</v>
+      </c>
+      <c r="R37" s="34">
+        <v>550.90879999999993</v>
+      </c>
+      <c r="S37" s="24">
+        <v>2627747.34375</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC37">
+        <f>TTEST(AC5:AC35,AM5:AM43,2,3)</f>
+        <v>7.8405779089004701E-3</v>
+      </c>
+      <c r="AD37">
+        <f>TTEST(AD5:AD35,AN5:AN43,2,3)</f>
+        <v>4.305355590614092E-2</v>
+      </c>
+      <c r="AH37" s="13">
+        <v>7717</v>
+      </c>
+      <c r="AI37" s="9">
+        <v>48</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>3120</v>
+      </c>
+      <c r="AN37" s="34">
+        <v>638.57664</v>
+      </c>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="13">
+        <v>7717</v>
+      </c>
+      <c r="M38" s="9">
+        <v>40</v>
+      </c>
+      <c r="N38" s="2">
+        <v>2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5340</v>
+      </c>
+      <c r="R38" s="34">
+        <v>882.81947999999988</v>
+      </c>
+      <c r="S38" s="24">
+        <v>4276218.125</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH38" s="14">
+        <v>7717</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>50</v>
+      </c>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6">
+        <v>2240</v>
+      </c>
+      <c r="AN38" s="35">
+        <v>288.6576</v>
+      </c>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="13">
+        <v>7717</v>
+      </c>
+      <c r="M39" s="9">
+        <v>44</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>3950</v>
+      </c>
+      <c r="R39" s="34">
+        <v>644.15020000000015</v>
+      </c>
+      <c r="S39" s="24">
+        <v>2615538.28125</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH39" s="12">
+        <v>7617</v>
+      </c>
+      <c r="AI39" s="8">
+        <v>16</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>2280</v>
+      </c>
+      <c r="AN39" s="33">
+        <v>621.13128000000017</v>
+      </c>
+      <c r="AO39" s="23">
+        <v>207347.080078125</v>
+      </c>
+      <c r="AP39" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="13">
+        <v>7717</v>
+      </c>
+      <c r="M40" s="9">
+        <v>48</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>3120</v>
+      </c>
+      <c r="R40" s="34">
+        <v>638.57664</v>
+      </c>
+      <c r="S40" s="24"/>
+      <c r="T40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH40" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI40" s="9">
+        <v>20</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>3080</v>
+      </c>
+      <c r="AN40" s="34">
+        <v>1096.3814400000003</v>
+      </c>
+      <c r="AO40" s="24">
+        <v>196186.9921875</v>
+      </c>
+      <c r="AP40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="81">
+        <v>0.15784692904288883</v>
+      </c>
+      <c r="E41" s="82">
+        <v>9.854018003099585E-2</v>
+      </c>
+      <c r="F41" s="82">
+        <v>2.7244054378960381E-3</v>
+      </c>
+      <c r="G41" s="82">
+        <v>8.2767702833663592E-3</v>
+      </c>
+      <c r="H41" s="77">
+        <v>0.36395402222031559</v>
+      </c>
+      <c r="L41" s="14">
+        <v>7717</v>
+      </c>
+      <c r="M41" s="10">
+        <v>50</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6">
+        <v>2240</v>
+      </c>
+      <c r="R41" s="35">
+        <v>288.6576</v>
+      </c>
+      <c r="S41" s="31"/>
+      <c r="T41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI41" s="9">
+        <v>24</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>4590</v>
+      </c>
+      <c r="AN41" s="34">
+        <v>1822.0005000000001</v>
+      </c>
+      <c r="AO41" s="24">
+        <v>300000</v>
+      </c>
+      <c r="AP41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="12">
+        <v>7617</v>
+      </c>
+      <c r="M42" s="8">
+        <v>16</v>
+      </c>
+      <c r="N42" s="4">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P42" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>2280</v>
+      </c>
+      <c r="R42" s="33">
+        <v>621.13128000000017</v>
+      </c>
+      <c r="S42" s="23">
+        <v>207347.080078125</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH42" s="13">
+        <v>7617</v>
+      </c>
+      <c r="AI42" s="9">
+        <v>28</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>1270</v>
+      </c>
+      <c r="AN42" s="34">
+        <v>358.35590000000002</v>
+      </c>
+      <c r="AO42" s="24">
+        <v>475488.125</v>
+      </c>
+      <c r="AP42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="13">
+        <v>7617</v>
+      </c>
+      <c r="M43" s="9">
+        <v>20</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2</v>
+      </c>
+      <c r="P43" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>3080</v>
+      </c>
+      <c r="R43" s="34">
+        <v>1096.3814400000003</v>
+      </c>
+      <c r="S43" s="24">
+        <v>196186.9921875</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH43" s="14">
+        <v>7617</v>
+      </c>
+      <c r="AI43" s="10">
+        <v>32</v>
+      </c>
+      <c r="AJ43" s="6">
+        <v>3</v>
+      </c>
+      <c r="AK43" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AL43" s="6">
+        <v>3</v>
+      </c>
+      <c r="AM43" s="6">
+        <v>1670</v>
+      </c>
+      <c r="AN43" s="35">
+        <v>334.97694999999999</v>
+      </c>
+      <c r="AO43" s="25">
+        <v>706645.15625</v>
+      </c>
+      <c r="AP43" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="13">
+        <v>7617</v>
+      </c>
+      <c r="M44" s="9">
+        <v>24</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>4590</v>
+      </c>
+      <c r="R44" s="34">
+        <v>1822.0005000000001</v>
+      </c>
+      <c r="S44" s="24">
+        <v>300000</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="13">
+        <v>7617</v>
+      </c>
+      <c r="M45" s="9">
+        <v>28</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1270</v>
+      </c>
+      <c r="R45" s="34">
+        <v>358.35590000000002</v>
+      </c>
+      <c r="S45" s="24">
+        <v>475488.125</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="4:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="14">
+        <v>7617</v>
+      </c>
+      <c r="M46" s="10">
+        <v>32</v>
+      </c>
+      <c r="N46" s="6">
+        <v>3</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P46" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>1670</v>
+      </c>
+      <c r="R46" s="35">
+        <v>334.97694999999999</v>
+      </c>
+      <c r="S46" s="25">
+        <v>706645.15625</v>
+      </c>
+      <c r="T46" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="4:42" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <f>AVERAGE(N5:N46)</f>
+        <v>2.2439024390243905</v>
+      </c>
+      <c r="O47">
+        <f>AVERAGE(O5:O46)</f>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="P47">
+        <f>AVERAGE(P5:P46)</f>
+        <v>2.8918918918918921</v>
+      </c>
+      <c r="Q47">
+        <f>AVERAGE(Q5:Q46)</f>
+        <v>3770.2439024390242</v>
+      </c>
+      <c r="R47">
+        <f>AVERAGE(R5:R46)</f>
+        <v>865.46841560975645</v>
+      </c>
+      <c r="S47">
+        <f>AVERAGE(S5:S46)</f>
+        <v>1001124.7567918566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D9:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+    </row>
+    <row r="10" spans="4:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="67">
+        <v>1</v>
+      </c>
+      <c r="F12" s="67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="67">
+        <v>6</v>
+      </c>
+      <c r="F13" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="69">
+        <v>0.21429999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+    </row>
+    <row r="19" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="4:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D22:E22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>